--- a/tables/wk2_calibration.xlsx
+++ b/tables/wk2_calibration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DR\doktorat_v01\Latex\phd_kali\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F5B88-2515-422D-8F37-839348F9FF68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBFC730-D1B8-4D94-8B15-421F68E98C28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>S1</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>0.3-0.8</t>
+  </si>
+  <si>
+    <t>Zmienna</t>
+  </si>
+  <si>
+    <t>Wartość</t>
   </si>
 </sst>
 </file>
@@ -534,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J16"/>
+  <dimension ref="B3:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H16"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,6 +800,16 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables/wk2_calibration.xlsx
+++ b/tables/wk2_calibration.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DR\doktorat_v01\Latex\phd_kali\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBFC730-D1B8-4D94-8B15-421F68E98C28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBE619E-810F-4B3E-B395-AEF968C7725A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12675" yWindow="8205" windowWidth="21600" windowHeight="12855" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="wyniki" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
   <si>
     <t>S1</t>
   </si>
@@ -207,7 +209,34 @@
     <t>Zmienna</t>
   </si>
   <si>
-    <t>Wartość</t>
+    <t>$f_{freq}$</t>
+  </si>
+  <si>
+    <t>$f_{c}$</t>
+  </si>
+  <si>
+    <t>$f_{disp}$</t>
+  </si>
+  <si>
+    <t>$f_{MAC}$</t>
+  </si>
+  <si>
+    <t>Zestaw</t>
+  </si>
+  <si>
+    <t>Zestaw 1</t>
+  </si>
+  <si>
+    <t>Zestaw 0</t>
+  </si>
+  <si>
+    <t>Zestaw 4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -540,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J21"/>
+  <dimension ref="B3:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,18 +829,740 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>60</v>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A0EE52-B617-4C43-9185-546389251BF2}">
+  <dimension ref="B5:AE21"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="17" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D6">
+        <v>2.3096000000000001</v>
+      </c>
+      <c r="E6">
+        <v>7.6513999999999998</v>
+      </c>
+      <c r="F6">
+        <v>9.9634</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0.58809999999999996</v>
+      </c>
+      <c r="D7">
+        <v>1.0402</v>
+      </c>
+      <c r="E7">
+        <v>7.7847</v>
+      </c>
+      <c r="F7">
+        <v>9.4130000000000003</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="K7">
+        <v>1.2169000000000001</v>
+      </c>
+      <c r="L7">
+        <v>14.8649</v>
+      </c>
+      <c r="M7">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="N7">
+        <v>1.3704000000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="P7">
+        <v>0.8619</v>
+      </c>
+      <c r="Q7">
+        <v>13.7888</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0.43880000000000002</v>
+      </c>
+      <c r="D8">
+        <v>2.851</v>
+      </c>
+      <c r="E8">
+        <v>3.5478999999999998</v>
+      </c>
+      <c r="F8">
+        <v>6.8376999999999999</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8">
+        <v>0.9798</v>
+      </c>
+      <c r="K8">
+        <v>1.0782</v>
+      </c>
+      <c r="L8">
+        <v>8.6648999999999994</v>
+      </c>
+      <c r="M8">
+        <v>0.73129999999999995</v>
+      </c>
+      <c r="N8">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="O8">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="P8">
+        <v>1.1378999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>5.8569000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0.1075</v>
+      </c>
+      <c r="D9">
+        <v>1.5567</v>
+      </c>
+      <c r="E9">
+        <v>3.6274000000000002</v>
+      </c>
+      <c r="F9">
+        <v>5.2915999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="2">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2">
+        <v>-9</v>
+      </c>
+      <c r="L12" s="2">
+        <v>-9</v>
+      </c>
+      <c r="M12" s="2">
+        <v>9</v>
+      </c>
+      <c r="N12" s="2">
+        <v>-9</v>
+      </c>
+      <c r="O12" s="2">
+        <v>-9</v>
+      </c>
+      <c r="P12" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="K13">
+        <v>-8.3091000000000008</v>
+      </c>
+      <c r="L13">
+        <v>1.0586</v>
+      </c>
+      <c r="M13">
+        <v>3.4718</v>
+      </c>
+      <c r="N13">
+        <v>-3.1585999999999999</v>
+      </c>
+      <c r="O13">
+        <v>-5.6452999999999998</v>
+      </c>
+      <c r="P13">
+        <v>-2.2465000000000002</v>
+      </c>
+      <c r="Q13">
+        <v>-2.3940999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14">
+        <v>8.1296999999999997</v>
+      </c>
+      <c r="K14">
+        <v>3.6116000000000001</v>
+      </c>
+      <c r="L14">
+        <v>0.40629999999999999</v>
+      </c>
+      <c r="M14">
+        <v>8.7376000000000005</v>
+      </c>
+      <c r="N14">
+        <v>-5.3842999999999996</v>
+      </c>
+      <c r="O14">
+        <v>-41154</v>
+      </c>
+      <c r="P14">
+        <v>0.4163</v>
+      </c>
+      <c r="Q14">
+        <v>-1.2391000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="2">
+        <v>100</v>
+      </c>
+      <c r="K19" s="2">
+        <v>100</v>
+      </c>
+      <c r="L19" s="2">
+        <v>60</v>
+      </c>
+      <c r="M19" s="2">
+        <v>60</v>
+      </c>
+      <c r="N19" s="2">
+        <v>100</v>
+      </c>
+      <c r="O19" s="2">
+        <v>100</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20">
+        <v>63.49</v>
+      </c>
+      <c r="K20">
+        <v>70.656899999999993</v>
+      </c>
+      <c r="L20">
+        <v>82.321100000000001</v>
+      </c>
+      <c r="M20">
+        <v>47.821100000000001</v>
+      </c>
+      <c r="N20">
+        <v>39.877800000000001</v>
+      </c>
+      <c r="O20">
+        <v>120.07940000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21">
+        <v>98.257999999999996</v>
+      </c>
+      <c r="K21">
+        <v>64.273099999999999</v>
+      </c>
+      <c r="L21">
+        <v>55.553199999999997</v>
+      </c>
+      <c r="M21">
+        <v>46.047699999999999</v>
+      </c>
+      <c r="N21">
+        <v>91.486900000000006</v>
+      </c>
+      <c r="O21">
+        <v>206.6713</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E025345-BB91-4CBD-8FD0-31C4D6DFEA23}">
+  <dimension ref="B6:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.96491634100471901</v>
+      </c>
+      <c r="C6">
+        <v>1.8797413043568599E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1.08804696993941</v>
+      </c>
+      <c r="C7">
+        <v>1.16430449981506E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>11.6348142808886</v>
+      </c>
+      <c r="C8">
+        <v>5.45478315765122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.800094805777948</v>
+      </c>
+      <c r="C9">
+        <v>0.129501698232797</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.97409382828711299</v>
+      </c>
+      <c r="C10">
+        <v>4.1146549018600799E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.87522494240027404</v>
+      </c>
+      <c r="C11">
+        <v>3.9987249250955301E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1.00821111323279</v>
+      </c>
+      <c r="C12">
+        <v>8.3087834186302806E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7.5950124768863301</v>
+      </c>
+      <c r="C13">
+        <v>1.7999199497067</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>7.41633713998442</v>
+      </c>
+      <c r="C15">
+        <v>1.5549654602437799</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1.01786247044685</v>
+      </c>
+      <c r="C16">
+        <v>1.1856136340204999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.31494079137959802</v>
+      </c>
+      <c r="C17">
+        <v>0.114522590331656</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4.3536089260201498</v>
+      </c>
+      <c r="C18">
+        <v>1.83943805703223</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>-5.4457591787633799</v>
+      </c>
+      <c r="C19">
+        <v>1.6859361030028599</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>-1.6131468057069001</v>
+      </c>
+      <c r="C20">
+        <v>2.25979944255073</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2.9097820707154201</v>
+      </c>
+      <c r="C21">
+        <v>2.6281999583607201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.77360142459442405</v>
+      </c>
+      <c r="C22">
+        <v>3.0693063057837602</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>104.82924122413201</v>
+      </c>
+      <c r="C24">
+        <v>9.3378173259074906</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>92.841564016217603</v>
+      </c>
+      <c r="C25">
+        <v>17.470156613709801</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>58.648716025640098</v>
+      </c>
+      <c r="C26">
+        <v>2.95604226461084</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>43.806764624372803</v>
+      </c>
+      <c r="C27">
+        <v>5.8245968425572601</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>92.982299225836002</v>
+      </c>
+      <c r="C28">
+        <v>20.388521385740901</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>176.89403527562499</v>
+      </c>
+      <c r="C29">
+        <v>64.1284281134933</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables/wk2_calibration.xlsx
+++ b/tables/wk2_calibration.xlsx
@@ -8,26 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DR\doktorat_v01\Latex\phd_kali\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBE619E-810F-4B3E-B395-AEF968C7725A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7EA3F3-74E9-4FC5-967F-3D0906F44A20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12675" yWindow="8205" windowWidth="21600" windowHeight="12855" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="wyniki" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="99">
   <si>
     <t>S1</t>
   </si>
@@ -236,14 +245,104 @@
     <t>1</t>
   </si>
   <si>
-    <t>9</t>
+    <t>po poprawce</t>
+  </si>
+  <si>
+    <t>1E-9</t>
+  </si>
+  <si>
+    <t>var1:</t>
+  </si>
+  <si>
+    <t>var2:</t>
+  </si>
+  <si>
+    <t>var3:</t>
+  </si>
+  <si>
+    <t>var4:</t>
+  </si>
+  <si>
+    <t>var5:</t>
+  </si>
+  <si>
+    <t>var6:</t>
+  </si>
+  <si>
+    <t>var7:</t>
+  </si>
+  <si>
+    <t>var8:</t>
+  </si>
+  <si>
+    <t>var9:</t>
+  </si>
+  <si>
+    <t>var10:</t>
+  </si>
+  <si>
+    <t>var11:</t>
+  </si>
+  <si>
+    <t>var12:</t>
+  </si>
+  <si>
+    <t>var13:</t>
+  </si>
+  <si>
+    <t>var14:</t>
+  </si>
+  <si>
+    <t>var15:</t>
+  </si>
+  <si>
+    <t>var16:</t>
+  </si>
+  <si>
+    <t>var17:</t>
+  </si>
+  <si>
+    <t>var18:</t>
+  </si>
+  <si>
+    <t>var19:</t>
+  </si>
+  <si>
+    <t>var20:</t>
+  </si>
+  <si>
+    <t>var21:</t>
+  </si>
+  <si>
+    <t>var22:</t>
+  </si>
+  <si>
+    <t>MIN FREQ</t>
+  </si>
+  <si>
+    <t>MIN MAC</t>
+  </si>
+  <si>
+    <t>MIN DISP</t>
+  </si>
+  <si>
+    <t>MIN FF</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0E+00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +352,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -289,6 +395,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -943,13 +1053,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A0EE52-B617-4C43-9185-546389251BF2}">
   <dimension ref="B5:AE21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:31" x14ac:dyDescent="0.25">
@@ -960,10 +1075,10 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
         <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>63</v>
       </c>
       <c r="F5" t="s">
         <v>61</v>
@@ -1160,6 +1275,9 @@
       </c>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
       <c r="I11" t="s">
         <v>59</v>
       </c>
@@ -1189,35 +1307,62 @@
       </c>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="2">
-        <v>9</v>
-      </c>
-      <c r="K12" s="2">
-        <v>-9</v>
-      </c>
-      <c r="L12" s="2">
-        <v>-9</v>
-      </c>
-      <c r="M12" s="2">
-        <v>9</v>
-      </c>
-      <c r="N12" s="2">
-        <v>-9</v>
-      </c>
-      <c r="O12" s="2">
-        <v>-9</v>
-      </c>
-      <c r="P12" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>69</v>
+      <c r="J12" s="4">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1000000000</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1000000000</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1000000000</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1000000000</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D13">
+        <v>4.4673999999999996</v>
+      </c>
+      <c r="E13">
+        <v>10.5679</v>
+      </c>
+      <c r="F13">
+        <v>15.0441</v>
+      </c>
       <c r="I13" t="s">
         <v>65</v>
       </c>
@@ -1247,6 +1392,21 @@
       </c>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.3532999999999999</v>
+      </c>
+      <c r="E14">
+        <v>17.350200000000001</v>
+      </c>
+      <c r="F14">
+        <v>18.779299999999999</v>
+      </c>
       <c r="I14" t="s">
         <v>67</v>
       </c>
@@ -1273,6 +1433,40 @@
       </c>
       <c r="Q14">
         <v>-1.2391000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1.2252000000000001</v>
+      </c>
+      <c r="D15">
+        <v>3.4805000000000001</v>
+      </c>
+      <c r="E15">
+        <v>3.7309999999999999</v>
+      </c>
+      <c r="F15">
+        <v>8.4366000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0.2223</v>
+      </c>
+      <c r="D16">
+        <v>2.4266999999999999</v>
+      </c>
+      <c r="E16">
+        <v>3.895</v>
+      </c>
+      <c r="F16">
+        <v>6.5439999999999996</v>
       </c>
     </row>
     <row r="18" spans="9:17" x14ac:dyDescent="0.25">
@@ -1378,188 +1572,978 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E025345-BB91-4CBD-8FD0-31C4D6DFEA23}">
-  <dimension ref="B6:C29"/>
+  <dimension ref="B5:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.96491634100471901</v>
       </c>
       <c r="C6">
         <v>1.8797413043568599E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>1.0244</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6">
+        <v>0.83089999999999997</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6">
+        <v>1.0399</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6">
+        <v>1.0298</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S26" si="0">AVERAGE(H6,K6,N6,Q6)</f>
+        <v>0.98124999999999996</v>
+      </c>
+      <c r="T6">
+        <f>_xlfn.STDEV.P(H6,K6,N6,S6)</f>
+        <v>8.2640171640371143E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1.08804696993941</v>
       </c>
       <c r="C7">
         <v>1.16430449981506E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <v>1.0632999999999999</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7">
+        <v>1.3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7">
+        <v>1.2267999999999999</v>
+      </c>
+      <c r="P7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7">
+        <v>1.069</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>1.1647749999999999</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7:T29" si="1">_xlfn.STDEV.P(H7,K7,N7,S7)</f>
+        <v>8.6799862066062675E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>11.6348142808886</v>
       </c>
       <c r="C8">
         <v>5.45478315765122</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8">
+        <v>1.2707999999999999</v>
+      </c>
+      <c r="M8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8">
+        <v>1.1352</v>
+      </c>
+      <c r="P8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8">
+        <v>1.2044999999999999</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>1.1956250000000002</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>4.9600681620190448E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.800094805777948</v>
       </c>
       <c r="C9">
         <v>0.129501698232797</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="M9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="P9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9">
+        <v>0.7</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.80257500000000004</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>7.9397747478675354E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.97409382828711299</v>
       </c>
       <c r="C10">
         <v>4.1146549018600799E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10">
+        <v>0.95320000000000005</v>
+      </c>
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0.96982499999999994</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>7.1058159223184952E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.87522494240027404</v>
       </c>
       <c r="C11">
         <v>3.9987249250955301E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11">
+        <v>0.86429999999999996</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11">
+        <v>1.0697000000000001</v>
+      </c>
+      <c r="M11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="P11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11">
+        <v>1.2990999999999999</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0.98787500000000006</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>0.13263449468252092</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1.00821111323279</v>
       </c>
       <c r="C12">
         <v>8.3087834186302806E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12">
+        <v>1.0538000000000001</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12">
+        <v>1.0488</v>
+      </c>
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12">
+        <v>1.0636000000000001</v>
+      </c>
+      <c r="P12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12">
+        <v>1.0390999999999999</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>1.0513249999999998</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>5.6083468765315159E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7.5950124768863301</v>
       </c>
       <c r="C13">
         <v>1.7999199497067</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13">
+        <v>5.7808000000000002</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13">
+        <v>7.6588000000000003</v>
+      </c>
+      <c r="P13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13">
+        <v>4.1749000000000001</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>6.9036249999999999</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>1.5457262346926779</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>7.41633713998442</v>
       </c>
       <c r="C15">
         <v>1.5549654602437799</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="5">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3.7235999999999998</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="5">
+        <v>3.2465000000000002</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="5">
+        <v>6.6285999999999996</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>4.4665999999999997</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5163250000000001</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="1"/>
+        <v>1.294406812788075</v>
+      </c>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1.01786247044685</v>
       </c>
       <c r="C16">
         <v>1.1856136340204999</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16">
+        <v>-9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>7.1791</v>
+      </c>
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16">
+        <v>4.7803000000000004</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16">
+        <v>-4.1837999999999997</v>
+      </c>
+      <c r="P16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16">
+        <v>6.2031000000000001</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>3.494675</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>4.2530255716289416</v>
+      </c>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.31494079137959802</v>
       </c>
       <c r="C17">
         <v>0.114522590331656</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="5">
+        <v>-9</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="5">
+        <v>-1.6432</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="5">
+        <v>-9</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="5">
+        <v>-1.7899999999999999E-2</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0.1258</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.6338249999999999</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4076642693976891</v>
+      </c>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>4.3536089260201498</v>
       </c>
       <c r="C18">
         <v>1.83943805703223</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="5">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="5">
+        <v>5.6349999999999998</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="5">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.1734</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>3.6189</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5">
+        <f t="shared" si="0"/>
+        <v>3.5435749999999997</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0723749255364456</v>
+      </c>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>-5.4457591787633799</v>
       </c>
       <c r="C19">
         <v>1.6859361030028599</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="5">
+        <v>-9</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.41959999999999997</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="5">
+        <v>2.4506000000000001</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N19" s="5">
+        <v>-3.9940000000000002</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.21602500000000002</v>
+      </c>
+      <c r="T19" s="5">
+        <f t="shared" si="1"/>
+        <v>2.3308488026343941</v>
+      </c>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>-1.6131468057069001</v>
       </c>
       <c r="C20">
         <v>2.25979944255073</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20">
+        <v>-9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20">
+        <v>-0.54920000000000002</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20">
+        <v>-8.2074999999999996</v>
+      </c>
+      <c r="M20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20">
+        <v>-2.5792000000000002</v>
+      </c>
+      <c r="P20" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q20">
+        <v>1.3269</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>-2.5022500000000001</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>2.8593970403248914</v>
+      </c>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2.9097820707154201</v>
       </c>
       <c r="C21">
         <v>2.6281999583607201</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21">
+        <v>-8.9338999999999995</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <v>-4.2637999999999998</v>
+      </c>
+      <c r="M21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21">
+        <v>2.4601999999999999</v>
+      </c>
+      <c r="P21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21">
+        <v>-5.7104999999999997</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>-4.1120000000000001</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>4.0567466992499046</v>
+      </c>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.77360142459442405</v>
       </c>
       <c r="C22">
         <v>3.0693063057837602</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22">
+        <v>-6.6990999999999996</v>
+      </c>
+      <c r="J22" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22">
+        <v>7.4143999999999997</v>
+      </c>
+      <c r="M22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N22">
+        <v>4.9461000000000004</v>
+      </c>
+      <c r="P22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q22">
+        <v>-3.7397</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>0.4804250000000001</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>5.3645940661425806</v>
+      </c>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>104.82924122413201</v>
       </c>
       <c r="C24">
         <v>9.3378173259074906</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24">
+        <v>69.539100000000005</v>
+      </c>
+      <c r="J24" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24">
+        <v>63.087299999999999</v>
+      </c>
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24">
+        <v>87.433999999999997</v>
+      </c>
+      <c r="P24" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24">
+        <v>82.710400000000007</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>75.692700000000002</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>8.9764831572211126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>92.841564016217603</v>
       </c>
       <c r="C25">
         <v>17.470156613709801</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25">
+        <v>67.974599999999995</v>
+      </c>
+      <c r="J25" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25">
+        <v>60.216799999999999</v>
+      </c>
+      <c r="M25" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25">
+        <v>88.195899999999995</v>
+      </c>
+      <c r="P25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q25">
+        <v>77.124499999999998</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>73.377949999999998</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>10.228325174752209</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>58.648716025640098</v>
       </c>
       <c r="C26">
         <v>2.95604226461084</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26">
+        <v>65.4392</v>
+      </c>
+      <c r="J26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26">
+        <v>64.797700000000006</v>
+      </c>
+      <c r="M26" t="s">
+        <v>89</v>
+      </c>
+      <c r="N26">
+        <v>84.538899999999998</v>
+      </c>
+      <c r="P26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q26">
+        <v>50.009</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>66.196200000000005</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>8.2685720287726117</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>43.806764624372803</v>
       </c>
       <c r="C27">
         <v>5.8245968425572601</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27">
+        <v>87.7881</v>
+      </c>
+      <c r="J27" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27">
+        <v>89.643900000000002</v>
+      </c>
+      <c r="M27" t="s">
+        <v>90</v>
+      </c>
+      <c r="N27">
+        <v>86.453299999999999</v>
+      </c>
+      <c r="P27" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q27">
+        <v>89.719700000000003</v>
+      </c>
+      <c r="S27">
+        <f>AVERAGE(H27,K27,N27,Q27)</f>
+        <v>88.401250000000005</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>1.1489194430937069</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>92.982299225836002</v>
       </c>
       <c r="C28">
         <v>20.388521385740901</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28">
+        <v>42.846200000000003</v>
+      </c>
+      <c r="J28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28">
+        <v>31.323599999999999</v>
+      </c>
+      <c r="M28" t="s">
+        <v>91</v>
+      </c>
+      <c r="N28">
+        <v>57.150300000000001</v>
+      </c>
+      <c r="P28" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q28">
+        <v>85.956800000000001</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ref="S28:S29" si="2">AVERAGE(H28,K28,N28,Q28)</f>
+        <v>54.319225000000003</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>10.225091924730009</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>176.89403527562499</v>
       </c>
       <c r="C29">
         <v>64.1284281134933</v>
+      </c>
+      <c r="G29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29">
+        <v>193.6026</v>
+      </c>
+      <c r="J29" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29">
+        <v>59.2759</v>
+      </c>
+      <c r="M29" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29">
+        <v>138.01169999999999</v>
+      </c>
+      <c r="P29" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q29">
+        <v>268.78129999999999</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>164.91787499999998</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>50.025193203460567</v>
       </c>
     </row>
   </sheetData>
